--- a/Source/Project Outputs for RUMBA_plus/R32-Micro-BOM.xlsx
+++ b/Source/Project Outputs for RUMBA_plus/R32-Micro-BOM.xlsx
@@ -305,9 +305,6 @@
     <t>Holly Fuse</t>
   </si>
   <si>
-    <t>06T-0160L</t>
-  </si>
-  <si>
     <t>507-1821-1-ND</t>
   </si>
   <si>
@@ -843,6 +840,9 @@
   </si>
   <si>
     <t>Header 8</t>
+  </si>
+  <si>
+    <t>0ZCM0020FF2G</t>
   </si>
 </sst>
 </file>
@@ -1799,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -1877,333 +1877,333 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="2">
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F4" s="2">
         <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" s="2">
         <v>24</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -2215,27 +2215,27 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -2247,27 +2247,27 @@
         <v>2</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2311,7 +2311,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
@@ -2363,7 +2363,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
@@ -2444,24 +2444,24 @@
         <v>92</v>
       </c>
       <c r="H21" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -2473,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H22" s="3">
         <v>1935776</v>
@@ -2482,18 +2482,18 @@
         <v>15</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -2505,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H23" s="3">
         <v>1751248</v>
@@ -2514,7 +2514,7 @@
         <v>15</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2537,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="3">
         <v>1050170001</v>
@@ -2572,39 +2572,39 @@
         <v>15</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2641,13 +2641,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -2659,27 +2659,27 @@
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -2691,21 +2691,21 @@
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>35</v>
@@ -2723,7 +2723,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
@@ -2763,13 +2763,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
@@ -2781,16 +2781,16 @@
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2827,322 +2827,322 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="F34" s="2">
         <v>2</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H34" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="F36" s="2">
         <v>6</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H36" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="F37" s="2">
         <v>7</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H37" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="F38" s="2">
         <v>10</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H38" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="F39" s="2">
         <v>4</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H39" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="F40" s="2">
         <v>21</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H40" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="F41" s="2">
         <v>4</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="F42" s="2">
         <v>2</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H42" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H43" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3179,34 +3179,34 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="2">
+        <v>15</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F45" s="2">
-        <v>15</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H45" s="4" t="s">
+      <c r="I45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="5"/>
@@ -3275,7 +3275,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -3287,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="5"/>
@@ -3327,13 +3327,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
@@ -3345,27 +3345,27 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
@@ -3377,16 +3377,16 @@
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H51" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3455,13 +3455,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>14</v>
@@ -3473,27 +3473,27 @@
         <v>5</v>
       </c>
       <c r="G54" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>14</v>
@@ -3505,16 +3505,16 @@
         <v>1</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H55" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3544,118 +3544,117 @@
     <hyperlink ref="H33" r:id="rId23" tooltip="Manufacturer"/>
     <hyperlink ref="J33" r:id="rId24" tooltip="Supplier"/>
     <hyperlink ref="G21" r:id="rId25" tooltip="Component"/>
-    <hyperlink ref="H21" r:id="rId26" tooltip="Manufacturer"/>
-    <hyperlink ref="J21" r:id="rId27" tooltip="Supplier"/>
-    <hyperlink ref="G28" r:id="rId28" tooltip="Component"/>
-    <hyperlink ref="H28" r:id="rId29" tooltip="Manufacturer"/>
-    <hyperlink ref="J28" r:id="rId30" tooltip="Supplier"/>
-    <hyperlink ref="G29" r:id="rId31" tooltip="Component"/>
-    <hyperlink ref="H29" r:id="rId32" tooltip="Manufacturer"/>
-    <hyperlink ref="J29" r:id="rId33" tooltip="Supplier"/>
-    <hyperlink ref="G25" r:id="rId34" tooltip="Component"/>
-    <hyperlink ref="H25" r:id="rId35" tooltip="Manufacturer" display="1050170001"/>
-    <hyperlink ref="J25" r:id="rId36" tooltip="Supplier"/>
-    <hyperlink ref="G6" r:id="rId37" tooltip="Component"/>
-    <hyperlink ref="H6" r:id="rId38" tooltip="Manufacturer"/>
-    <hyperlink ref="J6" r:id="rId39" tooltip="Supplier"/>
-    <hyperlink ref="G9" r:id="rId40" tooltip="Component"/>
-    <hyperlink ref="H9" r:id="rId41" tooltip="Manufacturer"/>
-    <hyperlink ref="J9" r:id="rId42" tooltip="Supplier"/>
-    <hyperlink ref="G26" r:id="rId43" tooltip="Component"/>
-    <hyperlink ref="H26" r:id="rId44" tooltip="Manufacturer"/>
-    <hyperlink ref="J26" r:id="rId45" tooltip="Supplier"/>
-    <hyperlink ref="G55" r:id="rId46" tooltip="Component"/>
-    <hyperlink ref="H55" r:id="rId47" tooltip="Manufacturer"/>
-    <hyperlink ref="J55" r:id="rId48" tooltip="Supplier"/>
-    <hyperlink ref="G32" r:id="rId49" tooltip="Component"/>
-    <hyperlink ref="H32" r:id="rId50" tooltip="Manufacturer"/>
-    <hyperlink ref="J32" r:id="rId51" tooltip="Supplier"/>
-    <hyperlink ref="G5" r:id="rId52" tooltip="Component"/>
-    <hyperlink ref="H5" r:id="rId53" tooltip="Manufacturer"/>
-    <hyperlink ref="J5" r:id="rId54" tooltip="Supplier"/>
-    <hyperlink ref="G13" r:id="rId55" tooltip="Component"/>
-    <hyperlink ref="H13" r:id="rId56" tooltip="Manufacturer"/>
-    <hyperlink ref="J13" r:id="rId57" tooltip="Supplier"/>
-    <hyperlink ref="G14" r:id="rId58" tooltip="Component"/>
-    <hyperlink ref="H14" r:id="rId59" tooltip="Manufacturer"/>
-    <hyperlink ref="J14" r:id="rId60" tooltip="Supplier"/>
-    <hyperlink ref="G15" r:id="rId61" tooltip="Component"/>
-    <hyperlink ref="H15" r:id="rId62" tooltip="Manufacturer"/>
-    <hyperlink ref="J15" r:id="rId63" tooltip="Supplier"/>
-    <hyperlink ref="G22" r:id="rId64" tooltip="Component"/>
-    <hyperlink ref="H22" r:id="rId65" tooltip="Manufacturer" display="1935776"/>
-    <hyperlink ref="J22" r:id="rId66" tooltip="Supplier"/>
-    <hyperlink ref="G23" r:id="rId67" tooltip="Component"/>
-    <hyperlink ref="H23" r:id="rId68" tooltip="Manufacturer" display="1751248"/>
-    <hyperlink ref="J23" r:id="rId69" tooltip="Supplier"/>
-    <hyperlink ref="G3" r:id="rId70" tooltip="Component"/>
-    <hyperlink ref="H3" r:id="rId71" tooltip="Manufacturer"/>
-    <hyperlink ref="J3" r:id="rId72" tooltip="Supplier"/>
-    <hyperlink ref="G4" r:id="rId73" tooltip="Component"/>
-    <hyperlink ref="H4" r:id="rId74" tooltip="Manufacturer"/>
-    <hyperlink ref="J4" r:id="rId75" tooltip="Supplier"/>
-    <hyperlink ref="G7" r:id="rId76" tooltip="Component"/>
-    <hyperlink ref="H7" r:id="rId77" tooltip="Manufacturer"/>
-    <hyperlink ref="J7" r:id="rId78" tooltip="Supplier"/>
-    <hyperlink ref="G10" r:id="rId79" tooltip="Component"/>
-    <hyperlink ref="H10" r:id="rId80" tooltip="Manufacturer"/>
-    <hyperlink ref="J10" r:id="rId81" tooltip="Supplier"/>
-    <hyperlink ref="G11" r:id="rId82" tooltip="Component"/>
-    <hyperlink ref="H11" r:id="rId83" tooltip="Manufacturer"/>
-    <hyperlink ref="J11" r:id="rId84" tooltip="Supplier"/>
-    <hyperlink ref="G50" r:id="rId85" tooltip="Component"/>
-    <hyperlink ref="H50" r:id="rId86" tooltip="Manufacturer"/>
-    <hyperlink ref="J50" r:id="rId87" tooltip="Supplier"/>
-    <hyperlink ref="G51" r:id="rId88" tooltip="Component"/>
-    <hyperlink ref="H51" r:id="rId89" tooltip="Manufacturer"/>
-    <hyperlink ref="J51" r:id="rId90" tooltip="Supplier"/>
-    <hyperlink ref="G54" r:id="rId91" tooltip="Component"/>
-    <hyperlink ref="H54" r:id="rId92" tooltip="Manufacturer"/>
-    <hyperlink ref="J54" r:id="rId93" tooltip="Supplier"/>
-    <hyperlink ref="G8" r:id="rId94" tooltip="Component"/>
-    <hyperlink ref="H8" r:id="rId95" tooltip="Manufacturer"/>
-    <hyperlink ref="J8" r:id="rId96" tooltip="Supplier"/>
-    <hyperlink ref="G12" r:id="rId97" tooltip="Component"/>
-    <hyperlink ref="H12" r:id="rId98" tooltip="Manufacturer"/>
-    <hyperlink ref="J12" r:id="rId99" tooltip="Supplier"/>
-    <hyperlink ref="G34" r:id="rId100" tooltip="Component"/>
-    <hyperlink ref="H34" r:id="rId101" tooltip="Manufacturer"/>
-    <hyperlink ref="J34" r:id="rId102" tooltip="Supplier"/>
-    <hyperlink ref="G35" r:id="rId103" tooltip="Component"/>
-    <hyperlink ref="H35" r:id="rId104" tooltip="Manufacturer"/>
-    <hyperlink ref="J35" r:id="rId105" tooltip="Supplier"/>
-    <hyperlink ref="G36" r:id="rId106" tooltip="Component"/>
-    <hyperlink ref="H36" r:id="rId107" tooltip="Manufacturer"/>
-    <hyperlink ref="J36" r:id="rId108" tooltip="Supplier"/>
-    <hyperlink ref="G37" r:id="rId109" tooltip="Component"/>
-    <hyperlink ref="H37" r:id="rId110" tooltip="Manufacturer"/>
-    <hyperlink ref="J37" r:id="rId111" tooltip="Supplier"/>
-    <hyperlink ref="G38" r:id="rId112" tooltip="Component"/>
-    <hyperlink ref="H38" r:id="rId113" tooltip="Manufacturer"/>
-    <hyperlink ref="J38" r:id="rId114" tooltip="Supplier"/>
-    <hyperlink ref="G39" r:id="rId115" tooltip="Component"/>
-    <hyperlink ref="H39" r:id="rId116" tooltip="Manufacturer"/>
-    <hyperlink ref="J39" r:id="rId117" tooltip="Supplier"/>
-    <hyperlink ref="G40" r:id="rId118" tooltip="Component"/>
-    <hyperlink ref="H40" r:id="rId119" tooltip="Manufacturer"/>
-    <hyperlink ref="J40" r:id="rId120" tooltip="Supplier"/>
-    <hyperlink ref="G41" r:id="rId121" tooltip="Component"/>
-    <hyperlink ref="H41" r:id="rId122" tooltip="Manufacturer"/>
-    <hyperlink ref="J41" r:id="rId123" tooltip="Supplier"/>
-    <hyperlink ref="G42" r:id="rId124" tooltip="Component"/>
-    <hyperlink ref="H42" r:id="rId125" tooltip="Manufacturer"/>
-    <hyperlink ref="J42" r:id="rId126" tooltip="Supplier"/>
-    <hyperlink ref="G43" r:id="rId127" tooltip="Component"/>
-    <hyperlink ref="H43" r:id="rId128" tooltip="Manufacturer"/>
-    <hyperlink ref="J43" r:id="rId129" tooltip="Supplier"/>
-    <hyperlink ref="G45" r:id="rId130" tooltip="Component"/>
-    <hyperlink ref="H45" r:id="rId131" tooltip="Manufacturer"/>
-    <hyperlink ref="J45" r:id="rId132" tooltip="Supplier"/>
+    <hyperlink ref="J21" r:id="rId26" tooltip="Supplier"/>
+    <hyperlink ref="G28" r:id="rId27" tooltip="Component"/>
+    <hyperlink ref="H28" r:id="rId28" tooltip="Manufacturer"/>
+    <hyperlink ref="J28" r:id="rId29" tooltip="Supplier"/>
+    <hyperlink ref="G29" r:id="rId30" tooltip="Component"/>
+    <hyperlink ref="H29" r:id="rId31" tooltip="Manufacturer"/>
+    <hyperlink ref="J29" r:id="rId32" tooltip="Supplier"/>
+    <hyperlink ref="G25" r:id="rId33" tooltip="Component"/>
+    <hyperlink ref="H25" r:id="rId34" tooltip="Manufacturer" display="1050170001"/>
+    <hyperlink ref="J25" r:id="rId35" tooltip="Supplier"/>
+    <hyperlink ref="G6" r:id="rId36" tooltip="Component"/>
+    <hyperlink ref="H6" r:id="rId37" tooltip="Manufacturer"/>
+    <hyperlink ref="J6" r:id="rId38" tooltip="Supplier"/>
+    <hyperlink ref="G9" r:id="rId39" tooltip="Component"/>
+    <hyperlink ref="H9" r:id="rId40" tooltip="Manufacturer"/>
+    <hyperlink ref="J9" r:id="rId41" tooltip="Supplier"/>
+    <hyperlink ref="G26" r:id="rId42" tooltip="Component"/>
+    <hyperlink ref="H26" r:id="rId43" tooltip="Manufacturer"/>
+    <hyperlink ref="J26" r:id="rId44" tooltip="Supplier"/>
+    <hyperlink ref="G55" r:id="rId45" tooltip="Component"/>
+    <hyperlink ref="H55" r:id="rId46" tooltip="Manufacturer"/>
+    <hyperlink ref="J55" r:id="rId47" tooltip="Supplier"/>
+    <hyperlink ref="G32" r:id="rId48" tooltip="Component"/>
+    <hyperlink ref="H32" r:id="rId49" tooltip="Manufacturer"/>
+    <hyperlink ref="J32" r:id="rId50" tooltip="Supplier"/>
+    <hyperlink ref="G5" r:id="rId51" tooltip="Component"/>
+    <hyperlink ref="H5" r:id="rId52" tooltip="Manufacturer"/>
+    <hyperlink ref="J5" r:id="rId53" tooltip="Supplier"/>
+    <hyperlink ref="G13" r:id="rId54" tooltip="Component"/>
+    <hyperlink ref="H13" r:id="rId55" tooltip="Manufacturer"/>
+    <hyperlink ref="J13" r:id="rId56" tooltip="Supplier"/>
+    <hyperlink ref="G14" r:id="rId57" tooltip="Component"/>
+    <hyperlink ref="H14" r:id="rId58" tooltip="Manufacturer"/>
+    <hyperlink ref="J14" r:id="rId59" tooltip="Supplier"/>
+    <hyperlink ref="G15" r:id="rId60" tooltip="Component"/>
+    <hyperlink ref="H15" r:id="rId61" tooltip="Manufacturer"/>
+    <hyperlink ref="J15" r:id="rId62" tooltip="Supplier"/>
+    <hyperlink ref="G22" r:id="rId63" tooltip="Component"/>
+    <hyperlink ref="H22" r:id="rId64" tooltip="Manufacturer" display="1935776"/>
+    <hyperlink ref="J22" r:id="rId65" tooltip="Supplier"/>
+    <hyperlink ref="G23" r:id="rId66" tooltip="Component"/>
+    <hyperlink ref="H23" r:id="rId67" tooltip="Manufacturer" display="1751248"/>
+    <hyperlink ref="J23" r:id="rId68" tooltip="Supplier"/>
+    <hyperlink ref="G3" r:id="rId69" tooltip="Component"/>
+    <hyperlink ref="H3" r:id="rId70" tooltip="Manufacturer"/>
+    <hyperlink ref="J3" r:id="rId71" tooltip="Supplier"/>
+    <hyperlink ref="G4" r:id="rId72" tooltip="Component"/>
+    <hyperlink ref="H4" r:id="rId73" tooltip="Manufacturer"/>
+    <hyperlink ref="J4" r:id="rId74" tooltip="Supplier"/>
+    <hyperlink ref="G7" r:id="rId75" tooltip="Component"/>
+    <hyperlink ref="H7" r:id="rId76" tooltip="Manufacturer"/>
+    <hyperlink ref="J7" r:id="rId77" tooltip="Supplier"/>
+    <hyperlink ref="G10" r:id="rId78" tooltip="Component"/>
+    <hyperlink ref="H10" r:id="rId79" tooltip="Manufacturer"/>
+    <hyperlink ref="J10" r:id="rId80" tooltip="Supplier"/>
+    <hyperlink ref="G11" r:id="rId81" tooltip="Component"/>
+    <hyperlink ref="H11" r:id="rId82" tooltip="Manufacturer"/>
+    <hyperlink ref="J11" r:id="rId83" tooltip="Supplier"/>
+    <hyperlink ref="G50" r:id="rId84" tooltip="Component"/>
+    <hyperlink ref="H50" r:id="rId85" tooltip="Manufacturer"/>
+    <hyperlink ref="J50" r:id="rId86" tooltip="Supplier"/>
+    <hyperlink ref="G51" r:id="rId87" tooltip="Component"/>
+    <hyperlink ref="H51" r:id="rId88" tooltip="Manufacturer"/>
+    <hyperlink ref="J51" r:id="rId89" tooltip="Supplier"/>
+    <hyperlink ref="G54" r:id="rId90" tooltip="Component"/>
+    <hyperlink ref="H54" r:id="rId91" tooltip="Manufacturer"/>
+    <hyperlink ref="J54" r:id="rId92" tooltip="Supplier"/>
+    <hyperlink ref="G8" r:id="rId93" tooltip="Component"/>
+    <hyperlink ref="H8" r:id="rId94" tooltip="Manufacturer"/>
+    <hyperlink ref="J8" r:id="rId95" tooltip="Supplier"/>
+    <hyperlink ref="G12" r:id="rId96" tooltip="Component"/>
+    <hyperlink ref="H12" r:id="rId97" tooltip="Manufacturer"/>
+    <hyperlink ref="J12" r:id="rId98" tooltip="Supplier"/>
+    <hyperlink ref="G34" r:id="rId99" tooltip="Component"/>
+    <hyperlink ref="H34" r:id="rId100" tooltip="Manufacturer"/>
+    <hyperlink ref="J34" r:id="rId101" tooltip="Supplier"/>
+    <hyperlink ref="G35" r:id="rId102" tooltip="Component"/>
+    <hyperlink ref="H35" r:id="rId103" tooltip="Manufacturer"/>
+    <hyperlink ref="J35" r:id="rId104" tooltip="Supplier"/>
+    <hyperlink ref="G36" r:id="rId105" tooltip="Component"/>
+    <hyperlink ref="H36" r:id="rId106" tooltip="Manufacturer"/>
+    <hyperlink ref="J36" r:id="rId107" tooltip="Supplier"/>
+    <hyperlink ref="G37" r:id="rId108" tooltip="Component"/>
+    <hyperlink ref="H37" r:id="rId109" tooltip="Manufacturer"/>
+    <hyperlink ref="J37" r:id="rId110" tooltip="Supplier"/>
+    <hyperlink ref="G38" r:id="rId111" tooltip="Component"/>
+    <hyperlink ref="H38" r:id="rId112" tooltip="Manufacturer"/>
+    <hyperlink ref="J38" r:id="rId113" tooltip="Supplier"/>
+    <hyperlink ref="G39" r:id="rId114" tooltip="Component"/>
+    <hyperlink ref="H39" r:id="rId115" tooltip="Manufacturer"/>
+    <hyperlink ref="J39" r:id="rId116" tooltip="Supplier"/>
+    <hyperlink ref="G40" r:id="rId117" tooltip="Component"/>
+    <hyperlink ref="H40" r:id="rId118" tooltip="Manufacturer"/>
+    <hyperlink ref="J40" r:id="rId119" tooltip="Supplier"/>
+    <hyperlink ref="G41" r:id="rId120" tooltip="Component"/>
+    <hyperlink ref="H41" r:id="rId121" tooltip="Manufacturer"/>
+    <hyperlink ref="J41" r:id="rId122" tooltip="Supplier"/>
+    <hyperlink ref="G42" r:id="rId123" tooltip="Component"/>
+    <hyperlink ref="H42" r:id="rId124" tooltip="Manufacturer"/>
+    <hyperlink ref="J42" r:id="rId125" tooltip="Supplier"/>
+    <hyperlink ref="G43" r:id="rId126" tooltip="Component"/>
+    <hyperlink ref="H43" r:id="rId127" tooltip="Manufacturer"/>
+    <hyperlink ref="J43" r:id="rId128" tooltip="Supplier"/>
+    <hyperlink ref="G45" r:id="rId129" tooltip="Component"/>
+    <hyperlink ref="H45" r:id="rId130" tooltip="Manufacturer"/>
+    <hyperlink ref="J45" r:id="rId131" tooltip="Supplier"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="144" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId133"/>
+  <pageSetup paperSize="144" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId132"/>
   <tableParts count="1">
-    <tablePart r:id="rId134"/>
+    <tablePart r:id="rId133"/>
   </tableParts>
 </worksheet>
 </file>